--- a/广东_city.xlsx
+++ b/广东_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,32 +389,47 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>conadd_str</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>hejian</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>susNum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cureNum</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>deathNum</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>mapName</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>citycode</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>econNum</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>jwsr</t>
         </is>
       </c>
     </row>
@@ -428,38 +443,49 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>299</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I2" t="n">
+        <v>399</v>
+      </c>
+      <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>深圳市</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>CN44030000000000</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -471,38 +497,49 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>248</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I3" t="n">
+        <v>330</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>广州市</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>CN44010000000000</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -510,42 +547,53 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>56</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>东莞市</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>CN44190000000000</t>
-        </is>
-      </c>
+          <t>佛山市</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CN44060000000000</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,42 +601,53 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>47</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>佛山市</t>
-        </is>
+        <v>64</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>CN44060000000000</t>
-        </is>
-      </c>
+          <t>中山市</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CN44200000000000</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,42 +655,53 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>珠海</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>71</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I6" t="n">
+        <v>97</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>珠海市</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>CN44040000000000</t>
-        </is>
-      </c>
+          <t>东莞市</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CN44190000000000</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -639,42 +709,53 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>江门</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>13</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>江门市</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>CN44070000000000</t>
-        </is>
-      </c>
+          <t>汕头市</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CN44050000000000</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,42 +763,53 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>阳江</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>58</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>中山市</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CN44200000000000</t>
-        </is>
-      </c>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CN44170000000000</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -725,42 +817,53 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>湛江</t>
+          <t>潮州</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
-        <v>22</v>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>17</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>湛江市</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CN44080000000000</t>
-        </is>
-      </c>
+          <t>潮州市</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CN44510000000000</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -768,42 +871,53 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>茂名</t>
+          <t>汕尾</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
-        <v>14</v>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>茂名市</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CN44090000000000</t>
-        </is>
-      </c>
+          <t>汕尾市</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CN44150000000000</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -811,42 +925,53 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>揭阳</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>13</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>肇庆市</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CN44120000000000</t>
-        </is>
-      </c>
+          <t>揭阳市</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CN44520000000000</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -854,42 +979,53 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>梅州</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>12</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>梅州市</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CN44140000000000</t>
-        </is>
-      </c>
+          <t>韶关市</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CN44020000000000</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -897,42 +1033,53 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>清远</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>58</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>惠州市</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>CN44130000000000</t>
-        </is>
-      </c>
+          <t>清远市</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CN44180000000000</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,42 +1087,53 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>22</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>汕头市</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CN44050000000000</t>
-        </is>
-      </c>
+          <t>肇庆市</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CN44120000000000</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -983,11 +1141,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>阳江</t>
+          <t>茂名</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
@@ -997,28 +1155,39 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>11</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>阳江市</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>CN44170000000000</t>
-        </is>
-      </c>
+          <t>茂名市</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CN44090000000000</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1026,42 +1195,53 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>揭阳</t>
+          <t>梅州</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>揭阳市</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>CN44520000000000</t>
-        </is>
-      </c>
+          <t>梅州市</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CN44140000000000</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1069,42 +1249,53 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>湛江</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>韶关市</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CN44020000000000</t>
-        </is>
-      </c>
+          <t>湛江市</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>CN44080000000000</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1112,42 +1303,53 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>清远</t>
+          <t>江门</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>12</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>清远市</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CN44180000000000</t>
-        </is>
-      </c>
+          <t>江门市</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>CN44070000000000</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1155,42 +1357,53 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>汕尾</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>汕尾市</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>CN44150000000000</t>
-        </is>
-      </c>
+          <t>惠州市</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CN44130000000000</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1198,42 +1411,53 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>潮州</t>
+          <t>珠海</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>潮州市</t>
-        </is>
+        <v>97</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>CN44510000000000</t>
-        </is>
-      </c>
+          <t>珠海市</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>CN44040000000000</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1255,28 +1479,39 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>4</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>河源市</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>CN44160000000000</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
